--- a/DesignerRawData/Excel/DialogueTalkerName.xlsx
+++ b/DesignerRawData/Excel/DialogueTalkerName.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8C5678-CA75-4C8C-B779-504B11DF93F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8476163A-7B59-4667-B745-918260102BCC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DialogueTalkerName" sheetId="3" r:id="rId1"/>
+    <sheet name="DT_DialogueTalkerName" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DialogueTalkerNameID">DialogueTalkerName!$A:$A</definedName>
-    <definedName name="NameID">DialogueTalkerName!$A:$A</definedName>
+    <definedName name="DialogueTalkerNameID">DT_DialogueTalkerName!$A:$A</definedName>
+    <definedName name="NameID">DT_DialogueTalkerName!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
